--- a/面经出现.xlsx
+++ b/面经出现.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F044FD12-0445-4A92-99AB-726C509B1FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E595E8-1F63-4D88-9511-675B09934268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11640" yWindow="1560" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10872" yWindow="252" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,26 @@
   </si>
   <si>
     <t>剑指 Offer 67. 把字符串转换成整数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110. 平衡二叉树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>239. 滑动窗口最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N个台阶 ，每次最多跳m次，求有几种不同跳法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1195. 交替打印字符串</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,15 +425,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.5546875" customWidth="1"/>
+    <col min="1" max="1" width="42.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -520,6 +540,46 @@
         <v>1</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/面经出现.xlsx
+++ b/面经出现.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E595E8-1F63-4D88-9511-675B09934268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC690622-07BA-434D-855C-35D22916A2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10872" yWindow="252" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9744" yWindow="636" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +100,162 @@
   </si>
   <si>
     <t>1195. 交替打印字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>215数组中的第K个最大元素(随机选择)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>516最长回文子序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50. Pow(x, n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1143最长公共子序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>88合并两个有序数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给个单词，给个字典查找兄弟单词（字母完全一致、顺序不同，例如halo和haol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二维有序数组里判断某个数是否存在。《剑指offer》原题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度m的数字去掉k个数使得剩下的数字最小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串每2k个字符反转前k个字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单调递增数列输出所有的连续区间(56合并区间？)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组找出topk数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(跳跃游戏？）编程一道题，写一个函数，给定一个输入的额数组，每一项是一个定多少步，最终选择最短路径，最少跳跃次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个数组，An &gt; 2 An-1, 找a+b =k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100. 相同的树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串转数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试题 10.03. 搜索旋转数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>数字转换为字符；例如：1 -&gt; A，2-&gt;B, ... 26-&gt;Z；输</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>⼊⼀个数字，输出,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数字对应的所有可能的字符串</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>多个有序数组，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>⽤最⼩时间、空间复杂度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 排序为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>⼀个有序数组</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>数组中打印最</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>⼤数的下标，如果有多个最⼤值，等概率的打印其中⼀个最⼤值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的下标</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -107,7 +263,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +277,20 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -425,15 +595,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.5546875" customWidth="1"/>
+    <col min="1" max="1" width="70.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -457,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -561,7 +731,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -569,7 +739,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -577,6 +747,166 @@
         <v>18</v>
       </c>
       <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
         <v>1</v>
       </c>
     </row>

--- a/面经出现.xlsx
+++ b/面经出现.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC690622-07BA-434D-855C-35D22916A2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF5B448-FB2E-4AB6-B024-13798B8A3331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9744" yWindow="636" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10212" yWindow="384" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,6 +256,10 @@
       </rPr>
       <t>的下标</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53. 连续子数组的最大和</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -595,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -910,8 +914,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/面经出现.xlsx
+++ b/面经出现.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF5B448-FB2E-4AB6-B024-13798B8A3331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A87EAAE-96D8-486C-9343-B7F696EA80ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10212" yWindow="384" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10104" yWindow="720" windowWidth="13020" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -260,6 +260,14 @@
   </si>
   <si>
     <t>53. 连续子数组的最大和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似34,二分查找右边界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23. 合并K个升序链表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -695,7 +703,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -791,7 +799,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -919,6 +927,22 @@
         <v>39</v>
       </c>
       <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
         <v>1</v>
       </c>
     </row>

--- a/面经出现.xlsx
+++ b/面经出现.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A87EAAE-96D8-486C-9343-B7F696EA80ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1821C4F0-2AD3-4389-B986-D68AEB2F674C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10104" yWindow="720" windowWidth="13020" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="96" yWindow="504" windowWidth="13020" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -268,6 +268,14 @@
   </si>
   <si>
     <t>23. 合并K个升序链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64最小路径和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给你两个骰子，如何掷能够得到1-7的均匀分布</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -607,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -946,6 +954,22 @@
         <v>1</v>
       </c>
     </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/面经出现.xlsx
+++ b/面经出现.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1821C4F0-2AD3-4389-B986-D68AEB2F674C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FAC0C6-FF14-4A6B-AF3B-0EAF24527EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="504" windowWidth="13020" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10824" yWindow="300" windowWidth="13020" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -276,6 +276,22 @@
   </si>
   <si>
     <t>给你两个骰子，如何掷能够得到1-7的均匀分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>415字符串相加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>215数组中第K个最大元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个数组，挑出三个数字使得他们乘积为n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个正整数数组，找出满足能构成三角形组合的三元组的数目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -615,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -647,7 +663,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -967,6 +983,38 @@
         <v>43</v>
       </c>
       <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
         <v>1</v>
       </c>
     </row>

--- a/面经出现.xlsx
+++ b/面经出现.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FAC0C6-FF14-4A6B-AF3B-0EAF24527EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7EB2891-C887-48E0-9B50-B9F211F77E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10824" yWindow="300" windowWidth="13020" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -631,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1018,6 +1018,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/面经出现.xlsx
+++ b/面经出现.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7EB2891-C887-48E0-9B50-B9F211F77E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92E8115-1568-426D-8005-6B8650166B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -633,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -951,7 +951,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">

--- a/面经出现.xlsx
+++ b/面经出现.xlsx
@@ -1,31 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92E8115-1568-426D-8005-6B8650166B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F2A5DC-F48F-4EB3-9C2C-A33E89BCFD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -292,6 +300,58 @@
   </si>
   <si>
     <t>给定一个正整数数组，找出满足能构成三角形组合的三元组的数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>470用rand7()实现rand10()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>297二叉树序列化反序列化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之字打印矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>382链表随机节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>398随机数索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>946验证栈序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43. 字符串相乘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31下一个排列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>162寻找峰值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>687. 最长同值路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>590. N 叉树的后序遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>437. 路径总和 III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56. 合并区间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -631,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1026,6 +1086,110 @@
         <v>1</v>
       </c>
     </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/面经出现.xlsx
+++ b/面经出现.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F2A5DC-F48F-4EB3-9C2C-A33E89BCFD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95174D8D-D71A-4BB9-9C12-1C199C13B40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -352,6 +352,38 @@
   </si>
   <si>
     <t>56. 合并区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54螺旋矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>348设计井字棋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47全排列2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>72编辑距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>125验证回文串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>208. 实现 Trie (前缀树)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42接雨水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1162. 地图分析</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -691,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -779,7 +811,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1187,6 +1219,70 @@
         <v>60</v>
       </c>
       <c r="B61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69">
         <v>1</v>
       </c>
     </row>

--- a/面经出现.xlsx
+++ b/面经出现.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95174D8D-D71A-4BB9-9C12-1C199C13B40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17692314-865D-4508-8435-26A69235CB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6156" yWindow="0" windowWidth="12024" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="89">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,10 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>145. 二叉树的后序遍历(非递归)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>剑指 Offer 67. 把字符串转换成整数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,10 +116,6 @@
   </si>
   <si>
     <t>50. Pow(x, n)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1143最长公共子序列</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -384,6 +376,94 @@
   </si>
   <si>
     <t>1162. 地图分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>206翻转链表(翻转整个链表)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1143最长公共子序列(follow up:改成连续子数组)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37数独</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>145. 二叉树的前中后序遍历(非递归)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>572另一棵树的子树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>121买卖股票的最佳时机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160相交链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2035将数组分成两个数组并最小化数组和的差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200岛屿数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>287寻找重复数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>128最长连续序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>669修剪二叉搜索树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>234回文链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300最长递增子序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1011在D天内送达包裹的能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48旋转图像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>540有序数组的单一元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指 Offer 61扑克牌中的顺子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>448. 找到所有数组中消失的数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POJ No.2386 lake counting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40组合总和2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>167两数之和2(存在重复数字，找到所有组合)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -723,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -755,7 +835,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -824,15 +904,15 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -840,7 +920,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -848,7 +928,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -856,7 +936,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -864,7 +944,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -872,7 +952,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -880,15 +960,15 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -896,23 +976,23 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -920,7 +1000,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -928,7 +1008,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -936,7 +1016,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -944,7 +1024,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -952,7 +1032,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -960,7 +1040,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -968,7 +1048,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -976,7 +1056,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -984,7 +1064,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -992,7 +1072,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1000,7 +1080,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -1008,7 +1088,7 @@
     </row>
     <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -1016,7 +1096,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -1024,7 +1104,7 @@
     </row>
     <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -1032,7 +1112,7 @@
     </row>
     <row r="38" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -1040,15 +1120,15 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -1056,7 +1136,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -1064,7 +1144,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -1072,7 +1152,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -1080,7 +1160,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -1088,15 +1168,15 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -1104,7 +1184,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -1112,7 +1192,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -1120,7 +1200,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -1128,7 +1208,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -1136,7 +1216,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -1144,7 +1224,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -1152,7 +1232,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -1160,7 +1240,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -1168,7 +1248,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -1176,7 +1256,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -1184,7 +1264,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -1192,7 +1272,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -1200,7 +1280,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -1208,7 +1288,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -1216,7 +1296,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -1224,7 +1304,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -1232,7 +1312,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -1240,7 +1320,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B64">
         <v>2</v>
@@ -1248,7 +1328,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -1256,7 +1336,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -1264,7 +1344,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -1272,7 +1352,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -1280,10 +1360,167 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B69">
         <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/面经出现.xlsx
+++ b/面经出现.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17692314-865D-4508-8435-26A69235CB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABC5EBF-C344-488E-B3D5-2768E583B81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6156" yWindow="0" windowWidth="12024" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -806,7 +806,7 @@
   <dimension ref="A1:B89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1522,6 +1522,9 @@
       <c r="A89" t="s">
         <v>88</v>
       </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
